--- a/TNR/TCGenerator/TCGenerator_Acteur.xlsx
+++ b/TNR/TCGenerator/TCGenerator_Acteur.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="48" windowWidth="22116" windowHeight="11400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Lisez moi" sheetId="5" r:id="rId1"/>
@@ -251,12 +251,6 @@
     <t>SERVICE</t>
   </si>
   <si>
-    <t>MYLOG.addSTEPBLOCK("</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYLOG.addSTEPGRP("ONGLET </t>
-  </si>
-  <si>
     <t>")</t>
   </si>
   <si>
@@ -357,6 +351,12 @@
   </si>
   <si>
     <t>KW.scrollAndSetText(myJDD, "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNRResult.addSTEPGRP("ONGLET </t>
+  </si>
+  <si>
+    <t>TNRResult.addSTEPBLOCK("</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
@@ -895,15 +895,15 @@
       <c r="E2" s="5"/>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F33" si="0">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,2,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,3,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET ACTEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ACTEUR")</v>
       </c>
       <c r="G2" s="6" t="str">
         <f t="shared" ref="G2:G33" si="1">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,4,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,5,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET ACTEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ACTEUR")</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H33" si="2">IF(ISBLANK(D2),"",VLOOKUP(D2,TAG_List,6,FALSE)&amp;B2&amp;VLOOKUP(D2,TAG_List,7,FALSE))</f>
-        <v>MYLOG.addSTEPGRP("ONGLET ACTEUR")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ACTEUR")</v>
       </c>
       <c r="I2" s="9" t="str">
         <f t="shared" ref="I2:I33" si="3">IF(OR(D2="tab",D2="tabselected"),B2&amp;VLOOKUP(D2,TAG_List,8,FALSE),"")</f>
@@ -1316,15 +1316,15 @@
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>MYLOG.addSTEPBLOCK("SERVICE")</v>
+        <v>TNRResult.addSTEPBLOCK("SERVICE")</v>
       </c>
       <c r="G17" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>MYLOG.addSTEPBLOCK("SERVICE")</v>
+        <v>TNRResult.addSTEPBLOCK("SERVICE")</v>
       </c>
       <c r="H17" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>MYLOG.addSTEPBLOCK("SERVICE")</v>
+        <v>TNRResult.addSTEPBLOCK("SERVICE")</v>
       </c>
       <c r="I17" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1476,15 +1476,15 @@
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>MYLOG.addSTEPGRP("ONGLET AFFECTATION")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET AFFECTATION")</v>
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>MYLOG.addSTEPGRP("ONGLET AFFECTATION")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET AFFECTATION")</v>
       </c>
       <c r="H23" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>MYLOG.addSTEPGRP("ONGLET AFFECTATION")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET AFFECTATION")</v>
       </c>
       <c r="I23" s="9" t="str">
         <f t="shared" si="3"/>
@@ -1523,7 +1523,7 @@
         <v>60</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>8</v>
@@ -1554,7 +1554,7 @@
         <v>60</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>9</v>
@@ -1608,7 +1608,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="29" spans="2:10" s="6" customFormat="1">
       <c r="B29" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>11</v>
@@ -1795,22 +1795,22 @@
     </row>
     <row r="35" spans="2:10" s="6" customFormat="1">
       <c r="B35" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D35" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPBLOCK("CATEGORIE")</v>
+        <v>TNRResult.addSTEPBLOCK("CATEGORIE")</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPBLOCK("CATEGORIE")</v>
+        <v>TNRResult.addSTEPBLOCK("CATEGORIE")</v>
       </c>
       <c r="H35" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPBLOCK("CATEGORIE")</v>
+        <v>TNRResult.addSTEPBLOCK("CATEGORIE")</v>
       </c>
       <c r="I35" s="9" t="str">
         <f t="shared" si="8"/>
@@ -1826,7 +1826,7 @@
         <v>31</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="5"/>
@@ -1851,7 +1851,7 @@
     </row>
     <row r="37" spans="2:10" s="6" customFormat="1">
       <c r="B37" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>11</v>
@@ -1960,15 +1960,15 @@
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPGRP("ONGLET ROLE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ROLE")</v>
       </c>
       <c r="G41" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPGRP("ONGLET ROLE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ROLE")</v>
       </c>
       <c r="H41" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPGRP("ONGLET ROLE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ROLE")</v>
       </c>
       <c r="I41" s="9" t="str">
         <f t="shared" si="8"/>
@@ -2007,7 +2007,7 @@
         <v>61</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>8</v>
@@ -2038,7 +2038,7 @@
         <v>61</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>9</v>
@@ -2335,22 +2335,22 @@
     </row>
     <row r="55" spans="2:10" s="6" customFormat="1">
       <c r="B55" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPBLOCK("ROLE DANS L'ORGANISATION")</v>
+        <v>TNRResult.addSTEPBLOCK("ROLE DANS L'ORGANISATION")</v>
       </c>
       <c r="G55" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPBLOCK("ROLE DANS L'ORGANISATION")</v>
+        <v>TNRResult.addSTEPBLOCK("ROLE DANS L'ORGANISATION")</v>
       </c>
       <c r="H55" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPBLOCK("ROLE DANS L'ORGANISATION")</v>
+        <v>TNRResult.addSTEPBLOCK("ROLE DANS L'ORGANISATION")</v>
       </c>
       <c r="I55" s="9" t="str">
         <f t="shared" si="8"/>
@@ -2533,15 +2533,15 @@
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="5"/>
-        <v>MYLOG.addSTEPGRP("ONGLET PREVENTIF")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET PREVENTIF")</v>
       </c>
       <c r="G62" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>MYLOG.addSTEPGRP("ONGLET PREVENTIF")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET PREVENTIF")</v>
       </c>
       <c r="H62" s="6" t="str">
         <f t="shared" si="7"/>
-        <v>MYLOG.addSTEPGRP("ONGLET PREVENTIF")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET PREVENTIF")</v>
       </c>
       <c r="I62" s="9" t="str">
         <f t="shared" si="8"/>
@@ -2580,7 +2580,7 @@
         <v>62</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>8</v>
@@ -2611,7 +2611,7 @@
         <v>62</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>9</v>
@@ -2721,7 +2721,7 @@
         <v>34</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F69" s="6" t="str">
         <f t="shared" si="10"/>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="70" spans="2:10" s="6" customFormat="1">
       <c r="B70" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>11</v>
@@ -2804,15 +2804,15 @@
       </c>
       <c r="F72" s="6" t="str">
         <f t="shared" si="10"/>
-        <v>MYLOG.addSTEPGRP("ONGLET ZONE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ZONE")</v>
       </c>
       <c r="G72" s="6" t="str">
         <f t="shared" si="11"/>
-        <v>MYLOG.addSTEPGRP("ONGLET ZONE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ZONE")</v>
       </c>
       <c r="H72" s="6" t="str">
         <f t="shared" si="12"/>
-        <v>MYLOG.addSTEPGRP("ONGLET ZONE")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET ZONE")</v>
       </c>
       <c r="I72" s="9" t="str">
         <f t="shared" si="13"/>
@@ -2851,7 +2851,7 @@
         <v>63</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D74" s="6" t="s">
         <v>8</v>
@@ -2882,7 +2882,7 @@
         <v>63</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>9</v>
@@ -2932,13 +2932,13 @@
     </row>
     <row r="77" spans="2:10">
       <c r="B77" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C77" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" t="s">
         <v>96</v>
-      </c>
-      <c r="D77" t="s">
-        <v>98</v>
       </c>
       <c r="F77" s="6" t="str">
         <f t="shared" si="10"/>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="78" spans="2:10">
       <c r="B78" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
@@ -3035,22 +3035,22 @@
     </row>
     <row r="81" spans="2:10">
       <c r="B81" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
         <v>7</v>
       </c>
       <c r="F81" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPGRP("ONGLET HABILITATION")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET HABILITATION")</v>
       </c>
       <c r="G81" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPGRP("ONGLET HABILITATION")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET HABILITATION")</v>
       </c>
       <c r="H81" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>MYLOG.addSTEPGRP("ONGLET HABILITATION")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET HABILITATION")</v>
       </c>
       <c r="I81" s="9" t="str">
         <f t="shared" si="19"/>
@@ -3085,10 +3085,10 @@
     </row>
     <row r="83" spans="2:10">
       <c r="B83" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D83" t="s">
         <v>8</v>
@@ -3116,10 +3116,10 @@
     </row>
     <row r="84" spans="2:10">
       <c r="B84" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D84" t="s">
         <v>9</v>
@@ -3169,22 +3169,22 @@
     </row>
     <row r="86" spans="2:10">
       <c r="B86" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D86" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F86" s="6" t="str">
         <f t="shared" si="16"/>
-        <v>MYLOG.addSTEPGRP("ONGLET METIER")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET METIER")</v>
       </c>
       <c r="G86" s="6" t="str">
         <f t="shared" si="17"/>
-        <v>MYLOG.addSTEPGRP("ONGLET METIER")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET METIER")</v>
       </c>
       <c r="H86" s="6" t="str">
         <f t="shared" si="18"/>
-        <v>MYLOG.addSTEPGRP("ONGLET METIER")</v>
+        <v>TNRResult.addSTEPGRP("ONGLET METIER")</v>
       </c>
       <c r="I86" s="9" t="str">
         <f t="shared" si="19"/>
@@ -3219,10 +3219,10 @@
     </row>
     <row r="88" spans="2:10">
       <c r="B88" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>8</v>
@@ -3250,10 +3250,10 @@
     </row>
     <row r="89" spans="2:10">
       <c r="B89" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>9</v>
@@ -3442,7 +3442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -3492,22 +3492,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -3516,22 +3516,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="D3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>78</v>
-      </c>
       <c r="F3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>78</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -3540,22 +3540,22 @@
         <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="10" t="s">
@@ -3567,22 +3567,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>59</v>
@@ -3596,46 +3596,46 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:9" s="6" customFormat="1">
       <c r="A7" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="G7" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H7" s="7"/>
     </row>
@@ -3656,10 +3656,10 @@
         <v>74</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H8" s="7"/>
     </row>
@@ -3668,22 +3668,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>88</v>
-      </c>
       <c r="G9" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H9" s="7"/>
     </row>
@@ -3692,37 +3692,37 @@
         <v>55</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
